--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3DA67-B849-485F-BCF7-940DD583E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F6AE2-31FB-4E17-91DD-13AA2B1FAFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(7)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="341">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路线起点国货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,10 +1290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kline(Kseat*Bstop+Bseat)+Bline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上次登录时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1395,6 +1387,10 @@
   </si>
   <si>
     <t>admin_company</t>
+  </si>
+  <si>
+    <t>路线起点国货币，Kdiscount*Kline(Kseat*Bstop+Bseat)+Bline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2335,7 +2331,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>60</v>
@@ -2433,7 +2429,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>107</v>
@@ -2461,7 +2457,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>17</v>
@@ -2471,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2512,6 +2508,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A11:A13"/>
@@ -2520,12 +2522,6 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,10 +2650,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2687,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2714,10 +2710,10 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>316</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>118</v>
@@ -2730,10 +2726,10 @@
       <c r="A9" s="23"/>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -3135,7 +3131,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>59</v>
@@ -3163,7 +3159,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>17</v>
@@ -3173,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3200,6 +3196,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A28:A30"/>
@@ -3210,12 +3212,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3227,11 +3223,12 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -3267,13 +3264,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>211</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -3295,7 +3292,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -3313,10 +3310,10 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -3324,18 +3321,18 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -3357,7 +3354,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
@@ -3375,10 +3372,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>10</v>
@@ -3393,13 +3390,13 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3407,10 +3404,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>220</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>123</v>
@@ -3435,7 +3432,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
@@ -3453,10 +3450,10 @@
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>68</v>
@@ -3466,17 +3463,17 @@
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>68</v>
@@ -3486,18 +3483,18 @@
         <v>12</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -3519,10 +3516,10 @@
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>17</v>
@@ -3534,17 +3531,17 @@
         <v>12</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -3554,17 +3551,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -3574,18 +3571,18 @@
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>11</v>
@@ -3607,10 +3604,10 @@
       <c r="A18" s="29"/>
       <c r="B18" s="27"/>
       <c r="C18" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>17</v>
@@ -3622,7 +3619,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3632,7 +3629,7 @@
         <v>123</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>17</v>
@@ -3649,10 +3646,10 @@
       <c r="A20" s="29"/>
       <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -3660,17 +3657,17 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="32"/>
       <c r="C21" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>17</v>
@@ -3678,7 +3675,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3703,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3748,13 +3745,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -3776,7 +3773,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -3794,10 +3791,10 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -3807,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3817,7 +3814,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -3827,38 +3824,38 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -3880,10 +3877,10 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -3893,17 +3890,17 @@
         <v>12</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>39</v>
@@ -3918,10 +3915,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
@@ -3931,17 +3928,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -3951,20 +3948,20 @@
         <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
@@ -3976,10 +3973,10 @@
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>68</v>
@@ -3989,20 +3986,18 @@
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>315</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="26"/>
       <c r="C14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>68</v>
@@ -4012,18 +4007,18 @@
         <v>12</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4045,10 +4040,10 @@
       <c r="A16" s="22"/>
       <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>17</v>
@@ -4058,14 +4053,14 @@
         <v>12</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>143</v>
@@ -4083,7 +4078,7 @@
       <c r="A18" s="23"/>
       <c r="B18" s="26"/>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>144</v>
@@ -4099,13 +4094,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -4127,10 +4122,10 @@
       <c r="A20" s="22"/>
       <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
@@ -4140,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4167,10 +4162,10 @@
       <c r="A22" s="22"/>
       <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -4185,13 +4180,13 @@
       <c r="A23" s="22"/>
       <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
@@ -4203,13 +4198,13 @@
       <c r="A24" s="22"/>
       <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
@@ -4221,10 +4216,10 @@
       <c r="A25" s="23"/>
       <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -4234,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4242,7 +4237,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -4267,10 +4262,10 @@
       <c r="A27" s="22"/>
       <c r="B27" s="25"/>
       <c r="C27" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>17</v>
@@ -4280,20 +4275,20 @@
         <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="25"/>
       <c r="C28" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
@@ -4305,10 +4300,10 @@
       <c r="A29" s="22"/>
       <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
@@ -4318,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4328,7 +4323,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -4338,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4363,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8F2A74-1ECB-43E0-8C18-ECDE8BC7E10A}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4373,7 +4368,7 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="51.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4511,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4567,7 +4562,7 @@
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -4691,7 +4686,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4719,7 +4714,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4727,7 +4722,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4737,7 +4732,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>147</v>
@@ -4841,13 +4836,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -4869,13 +4864,13 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -4887,10 +4882,10 @@
       <c r="A4" s="23"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>118</v>
@@ -4898,18 +4893,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -4951,10 +4946,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -4964,18 +4959,18 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -4997,10 +4992,10 @@
       <c r="A9" s="22"/>
       <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -5010,17 +5005,17 @@
         <v>12</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5030,17 +5025,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -5051,13 +5046,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -5079,7 +5074,7 @@
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>142</v>
@@ -5099,7 +5094,7 @@
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>141</v>
@@ -5117,10 +5112,10 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -5130,25 +5125,25 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5212,13 +5207,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5240,7 +5235,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5258,10 +5253,10 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>68</v>
@@ -5271,17 +5266,17 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
@@ -5289,20 +5284,20 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -5314,13 +5309,13 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -5330,13 +5325,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5378,10 +5373,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5391,14 +5386,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>143</v>
@@ -5416,10 +5411,10 @@
       <c r="A12" s="23"/>
       <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
@@ -5427,18 +5422,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -5480,10 +5475,10 @@
       <c r="A15" s="23"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -5493,7 +5488,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5555,13 +5550,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5583,7 +5578,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5601,7 +5596,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>143</v>
@@ -5619,7 +5614,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="26"/>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>144</v>
@@ -5632,18 +5627,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -5683,10 +5678,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -5713,7 +5708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CAC699-5ACF-4FDA-B320-E85E8CB8AF3E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -5753,13 +5748,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5781,10 +5776,10 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -5792,14 +5787,14 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -5817,10 +5812,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5837,10 +5832,10 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -5855,10 +5850,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
@@ -5871,10 +5866,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -5885,13 +5880,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -5933,10 +5928,10 @@
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -5946,7 +5941,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F6AE2-31FB-4E17-91DD-13AA2B1FAFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AADEE-232D-4B65-A689-52374A77AAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(7)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="345">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1390,6 +1390,22 @@
   </si>
   <si>
     <t>路线起点国货币，Kdiscount*Kline(Kseat*Bstop+Bseat)+Bline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级行政区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1572,6 +1588,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896AF1D-8ECF-4909-A7A5-0F7E9F4CD4F5}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1931,10 +1953,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1957,8 +1979,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>65</v>
       </c>
@@ -1977,8 +1999,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
@@ -1997,10 +2019,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2023,8 +2045,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
@@ -2043,8 +2065,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
@@ -2063,10 +2085,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2089,8 +2111,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2107,8 +2129,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2127,10 +2149,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2153,8 +2175,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2171,8 +2193,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
@@ -2192,95 +2214,105 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="5" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
@@ -2289,77 +2321,67 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -2368,160 +2390,224 @@
       <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="5" t="s">
+      <c r="H22" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="5" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="3" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="5" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="5" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="3" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2573,10 +2659,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2599,8 +2685,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2621,10 +2707,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2647,8 +2733,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="18" t="s">
         <v>320</v>
       </c>
@@ -2667,8 +2753,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
@@ -2687,8 +2773,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
@@ -2707,8 +2793,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="18" t="s">
         <v>314</v>
       </c>
@@ -2723,8 +2809,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="20" t="s">
         <v>315</v>
       </c>
@@ -2741,10 +2827,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2767,8 +2853,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2783,8 +2869,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2887,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
@@ -2817,8 +2903,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2837,8 +2923,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2859,10 +2945,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2885,8 +2971,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2903,8 +2989,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
@@ -2921,8 +3007,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2943,10 +3029,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2969,8 +3055,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2991,10 +3077,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3017,8 +3103,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
@@ -3037,8 +3123,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
@@ -3059,10 +3145,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3085,8 +3171,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>56</v>
       </c>
@@ -3105,8 +3191,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
@@ -3127,10 +3213,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3153,8 +3239,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
@@ -3173,8 +3259,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
@@ -3196,12 +3282,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A28:A30"/>
@@ -3212,6 +3292,12 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3263,10 +3349,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3289,8 +3375,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
@@ -3307,8 +3393,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>212</v>
       </c>
@@ -3325,10 +3411,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3351,8 +3437,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>218</v>
       </c>
@@ -3369,8 +3455,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="18" t="s">
         <v>325</v>
       </c>
@@ -3387,8 +3473,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>238</v>
       </c>
@@ -3403,10 +3489,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3429,8 +3515,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>221</v>
       </c>
@@ -3447,8 +3533,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>169</v>
       </c>
@@ -3467,8 +3553,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>170</v>
       </c>
@@ -3487,10 +3573,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3513,8 +3599,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
         <v>158</v>
       </c>
@@ -3524,7 +3610,7 @@
       <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -3535,8 +3621,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5" t="s">
         <v>217</v>
       </c>
@@ -3546,7 +3632,7 @@
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3555,8 +3641,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>227</v>
       </c>
@@ -3575,10 +3661,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>231</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -3601,8 +3687,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="12" t="s">
         <v>217</v>
       </c>
@@ -3612,7 +3698,7 @@
       <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -3623,8 +3709,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="12" t="s">
         <v>123</v>
       </c>
@@ -3634,7 +3720,7 @@
       <c r="E19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
@@ -3643,8 +3729,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="12" t="s">
         <v>234</v>
       </c>
@@ -3661,8 +3747,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="14" t="s">
         <v>233</v>
       </c>
@@ -3744,10 +3830,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3770,8 +3856,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>157</v>
       </c>
@@ -3788,8 +3874,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>158</v>
       </c>
@@ -3808,8 +3894,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
@@ -3828,8 +3914,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>159</v>
       </c>
@@ -3848,10 +3934,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3874,8 +3960,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="5" t="s">
         <v>156</v>
       </c>
@@ -3894,8 +3980,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>165</v>
       </c>
@@ -3912,8 +3998,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>166</v>
       </c>
@@ -3932,8 +4018,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>167</v>
       </c>
@@ -3952,8 +4038,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
@@ -3970,8 +4056,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>169</v>
       </c>
@@ -3991,8 +4077,8 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
@@ -4011,10 +4097,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4037,8 +4123,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5" t="s">
         <v>156</v>
       </c>
@@ -4057,8 +4143,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5" t="s">
         <v>187</v>
       </c>
@@ -4075,8 +4161,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="3" t="s">
         <v>188</v>
       </c>
@@ -4093,10 +4179,10 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4119,8 +4205,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5" t="s">
         <v>156</v>
       </c>
@@ -4139,8 +4225,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
@@ -4159,8 +4245,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
         <v>192</v>
       </c>
@@ -4177,8 +4263,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="5" t="s">
         <v>193</v>
       </c>
@@ -4195,8 +4281,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="5" t="s">
         <v>194</v>
       </c>
@@ -4213,8 +4299,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>195</v>
       </c>
@@ -4233,10 +4319,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4259,8 +4345,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="5" t="s">
         <v>156</v>
       </c>
@@ -4279,8 +4365,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>202</v>
       </c>
@@ -4297,8 +4383,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="5" t="s">
         <v>203</v>
       </c>
@@ -4317,8 +4403,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
@@ -4358,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8F2A74-1ECB-43E0-8C18-ECDE8BC7E10A}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4398,10 +4484,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4424,8 +4510,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>115</v>
       </c>
@@ -4442,8 +4528,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4462,10 +4548,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4488,8 +4574,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>127</v>
       </c>
@@ -4510,10 +4596,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4536,8 +4622,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="5" t="s">
         <v>114</v>
       </c>
@@ -4556,8 +4642,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>123</v>
       </c>
@@ -4576,8 +4662,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>126</v>
       </c>
@@ -4596,8 +4682,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>128</v>
       </c>
@@ -4614,8 +4700,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>130</v>
       </c>
@@ -4634,8 +4720,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>131</v>
       </c>
@@ -4652,8 +4738,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
         <v>132</v>
       </c>
@@ -4670,8 +4756,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5" t="s">
         <v>133</v>
       </c>
@@ -4690,8 +4776,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5" t="s">
         <v>134</v>
       </c>
@@ -4708,8 +4794,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5" t="s">
         <v>136</v>
       </c>
@@ -4726,8 +4812,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="5" t="s">
         <v>135</v>
       </c>
@@ -4742,8 +4828,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5" t="s">
         <v>137</v>
       </c>
@@ -4760,8 +4846,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>138</v>
       </c>
@@ -4835,10 +4921,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4861,8 +4947,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>243</v>
       </c>
@@ -4879,8 +4965,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>244</v>
       </c>
@@ -4897,10 +4983,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4923,8 +5009,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>56</v>
       </c>
@@ -4943,8 +5029,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>242</v>
       </c>
@@ -4963,10 +5049,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4989,8 +5075,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>156</v>
       </c>
@@ -5009,8 +5095,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>242</v>
       </c>
@@ -5029,8 +5115,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>256</v>
       </c>
@@ -5045,10 +5131,10 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5071,8 +5157,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>260</v>
       </c>
@@ -5091,8 +5177,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
         <v>261</v>
       </c>
@@ -5109,8 +5195,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5" t="s">
         <v>242</v>
       </c>
@@ -5129,8 +5215,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>262</v>
       </c>
@@ -5206,10 +5292,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5232,8 +5318,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>268</v>
       </c>
@@ -5250,8 +5336,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>269</v>
       </c>
@@ -5270,8 +5356,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
         <v>270</v>
       </c>
@@ -5288,8 +5374,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>271</v>
       </c>
@@ -5306,8 +5392,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>272</v>
       </c>
@@ -5324,10 +5410,10 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5350,8 +5436,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
@@ -5370,8 +5456,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>267</v>
       </c>
@@ -5390,8 +5476,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>187</v>
       </c>
@@ -5408,8 +5494,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>188</v>
       </c>
@@ -5426,10 +5512,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5452,8 +5538,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
@@ -5472,8 +5558,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>267</v>
       </c>
@@ -5549,10 +5635,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5575,8 +5661,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>290</v>
       </c>
@@ -5593,8 +5679,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>187</v>
       </c>
@@ -5611,8 +5697,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>188</v>
       </c>
@@ -5631,10 +5717,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5657,8 +5743,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
@@ -5675,8 +5761,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>289</v>
       </c>
@@ -5747,10 +5833,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5773,8 +5859,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>303</v>
       </c>
@@ -5791,8 +5877,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>297</v>
       </c>
@@ -5809,8 +5895,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
         <v>298</v>
       </c>
@@ -5829,8 +5915,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>299</v>
       </c>
@@ -5847,8 +5933,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5" t="s">
         <v>300</v>
       </c>
@@ -5863,8 +5949,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>301</v>
       </c>
@@ -5879,10 +5965,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>309</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5905,8 +5991,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
@@ -5925,8 +6011,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>311</v>
       </c>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AADEE-232D-4B65-A689-52374A77AAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ADC08-863E-46CF-9BA4-729A1FD56BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="行政包administration(7)" sheetId="2" r:id="rId1"/>
+    <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
     <sheet name="用户包user(8)" sheetId="1" r:id="rId2"/>
     <sheet name="编组包train(5)" sheetId="5" r:id="rId3"/>
     <sheet name="路线包line(5)" sheetId="4" r:id="rId4"/>
@@ -1566,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1588,12 +1588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1913,7 +1907,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1953,10 +1947,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1979,8 +1973,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>65</v>
       </c>
@@ -1999,8 +1993,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2019,10 +2013,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2045,8 +2039,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
@@ -2065,8 +2059,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
@@ -2085,10 +2079,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2111,8 +2105,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2129,8 +2123,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2149,10 +2143,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2175,8 +2169,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2193,8 +2187,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
@@ -2216,7 +2210,7 @@
       <c r="A14" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -2239,8 +2233,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
         <v>344</v>
       </c>
@@ -2257,8 +2251,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="18" t="s">
         <v>83</v>
       </c>
@@ -2277,10 +2271,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2303,8 +2297,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
@@ -2321,8 +2315,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>89</v>
       </c>
@@ -2339,8 +2333,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>90</v>
       </c>
@@ -2357,8 +2351,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>91</v>
       </c>
@@ -2375,8 +2369,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
@@ -2395,8 +2389,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3" t="s">
         <v>92</v>
       </c>
@@ -2413,10 +2407,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>335</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2439,8 +2433,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="5" t="s">
         <v>101</v>
       </c>
@@ -2457,8 +2451,8 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2477,8 +2471,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="5" t="s">
         <v>102</v>
       </c>
@@ -2493,8 +2487,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
@@ -2511,10 +2505,10 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="24" t="s">
         <v>336</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2537,8 +2531,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="5" t="s">
         <v>60</v>
       </c>
@@ -2557,8 +2551,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="5" t="s">
         <v>108</v>
       </c>
@@ -2575,8 +2569,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="3" t="s">
         <v>109</v>
       </c>
@@ -2593,7 +2587,7 @@
       <c r="H32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2602,6 +2596,8 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A5:A7"/>
@@ -2659,10 +2655,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2685,8 +2681,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2707,10 +2703,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2733,8 +2729,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
         <v>320</v>
       </c>
@@ -2753,8 +2749,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
@@ -2773,8 +2769,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
@@ -2793,8 +2789,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
         <v>314</v>
       </c>
@@ -2809,8 +2805,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
         <v>315</v>
       </c>
@@ -2827,10 +2823,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2853,8 +2849,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2869,8 +2865,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2887,8 +2883,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
@@ -2903,8 +2899,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2923,8 +2919,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2945,10 +2941,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2971,8 +2967,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2989,8 +2985,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
@@ -3007,8 +3003,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3029,10 +3025,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3055,8 +3051,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -3077,10 +3073,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3103,8 +3099,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
@@ -3123,8 +3119,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
@@ -3145,10 +3141,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3171,8 +3167,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
         <v>56</v>
       </c>
@@ -3191,8 +3187,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
@@ -3213,10 +3209,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3239,8 +3235,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
@@ -3259,8 +3255,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
@@ -3349,10 +3345,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3375,8 +3371,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
@@ -3393,8 +3389,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>212</v>
       </c>
@@ -3411,10 +3407,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3437,8 +3433,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>218</v>
       </c>
@@ -3455,8 +3451,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
         <v>325</v>
       </c>
@@ -3473,8 +3469,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>238</v>
       </c>
@@ -3489,10 +3485,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3515,8 +3511,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>221</v>
       </c>
@@ -3533,8 +3529,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>169</v>
       </c>
@@ -3553,8 +3549,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>170</v>
       </c>
@@ -3573,10 +3569,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3599,8 +3595,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>158</v>
       </c>
@@ -3610,7 +3606,7 @@
       <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -3621,8 +3617,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>217</v>
       </c>
@@ -3632,7 +3628,7 @@
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3641,8 +3637,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
         <v>227</v>
       </c>
@@ -3661,10 +3657,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>231</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -3687,8 +3683,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="12" t="s">
         <v>217</v>
       </c>
@@ -3698,7 +3694,7 @@
       <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -3709,8 +3705,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="12" t="s">
         <v>123</v>
       </c>
@@ -3720,7 +3716,7 @@
       <c r="E19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
@@ -3729,8 +3725,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
         <v>234</v>
       </c>
@@ -3747,8 +3743,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="14" t="s">
         <v>233</v>
       </c>
@@ -3830,10 +3826,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3856,8 +3852,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>157</v>
       </c>
@@ -3874,8 +3870,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>158</v>
       </c>
@@ -3894,8 +3890,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
@@ -3914,8 +3910,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
         <v>159</v>
       </c>
@@ -3934,10 +3930,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3960,8 +3956,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>156</v>
       </c>
@@ -3980,8 +3976,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>165</v>
       </c>
@@ -3998,8 +3994,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>166</v>
       </c>
@@ -4018,8 +4014,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>167</v>
       </c>
@@ -4038,8 +4034,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
@@ -4056,8 +4052,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>169</v>
       </c>
@@ -4077,8 +4073,8 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
@@ -4097,10 +4093,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4123,8 +4119,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
         <v>156</v>
       </c>
@@ -4143,8 +4139,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>187</v>
       </c>
@@ -4161,8 +4157,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="3" t="s">
         <v>188</v>
       </c>
@@ -4179,10 +4175,10 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4205,8 +4201,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>156</v>
       </c>
@@ -4225,8 +4221,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
@@ -4245,8 +4241,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
         <v>192</v>
       </c>
@@ -4263,8 +4259,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
         <v>193</v>
       </c>
@@ -4281,8 +4277,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
         <v>194</v>
       </c>
@@ -4299,8 +4295,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
         <v>195</v>
       </c>
@@ -4319,10 +4315,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4345,8 +4341,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="5" t="s">
         <v>156</v>
       </c>
@@ -4365,8 +4361,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="5" t="s">
         <v>202</v>
       </c>
@@ -4383,8 +4379,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
         <v>203</v>
       </c>
@@ -4403,8 +4399,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
@@ -4484,10 +4480,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4510,8 +4506,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>115</v>
       </c>
@@ -4528,8 +4524,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4548,10 +4544,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4574,8 +4570,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
         <v>127</v>
       </c>
@@ -4596,10 +4592,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4622,8 +4618,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>114</v>
       </c>
@@ -4642,8 +4638,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>123</v>
       </c>
@@ -4662,8 +4658,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>126</v>
       </c>
@@ -4682,8 +4678,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>128</v>
       </c>
@@ -4700,8 +4696,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>130</v>
       </c>
@@ -4720,8 +4716,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>131</v>
       </c>
@@ -4738,8 +4734,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>132</v>
       </c>
@@ -4756,8 +4752,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>133</v>
       </c>
@@ -4776,8 +4772,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
         <v>134</v>
       </c>
@@ -4794,8 +4790,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>136</v>
       </c>
@@ -4812,8 +4808,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>135</v>
       </c>
@@ -4828,8 +4824,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>137</v>
       </c>
@@ -4846,8 +4842,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3" t="s">
         <v>138</v>
       </c>
@@ -4921,10 +4917,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4947,8 +4943,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>243</v>
       </c>
@@ -4965,8 +4961,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
         <v>244</v>
       </c>
@@ -4983,10 +4979,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5009,8 +5005,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>56</v>
       </c>
@@ -5029,8 +5025,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>242</v>
       </c>
@@ -5049,10 +5045,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5075,8 +5071,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>156</v>
       </c>
@@ -5095,8 +5091,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>242</v>
       </c>
@@ -5115,8 +5111,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
         <v>256</v>
       </c>
@@ -5131,10 +5127,10 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5157,8 +5153,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>260</v>
       </c>
@@ -5177,8 +5173,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>261</v>
       </c>
@@ -5195,8 +5191,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>242</v>
       </c>
@@ -5215,8 +5211,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
         <v>262</v>
       </c>
@@ -5292,10 +5288,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5318,8 +5314,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>268</v>
       </c>
@@ -5336,8 +5332,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>269</v>
       </c>
@@ -5356,8 +5352,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>270</v>
       </c>
@@ -5374,8 +5370,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>271</v>
       </c>
@@ -5392,8 +5388,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>272</v>
       </c>
@@ -5410,10 +5406,10 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5436,8 +5432,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
@@ -5456,8 +5452,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>267</v>
       </c>
@@ -5476,8 +5472,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>187</v>
       </c>
@@ -5494,8 +5490,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>188</v>
       </c>
@@ -5512,10 +5508,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5538,8 +5534,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
@@ -5558,8 +5554,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
         <v>267</v>
       </c>
@@ -5635,10 +5631,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5661,8 +5657,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>290</v>
       </c>
@@ -5679,8 +5675,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>187</v>
       </c>
@@ -5697,8 +5693,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3" t="s">
         <v>188</v>
       </c>
@@ -5717,10 +5713,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5743,8 +5739,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
@@ -5761,8 +5757,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>289</v>
       </c>
@@ -5833,10 +5829,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5859,8 +5855,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>303</v>
       </c>
@@ -5877,8 +5873,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>297</v>
       </c>
@@ -5895,8 +5891,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>298</v>
       </c>
@@ -5915,8 +5911,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>299</v>
       </c>
@@ -5933,8 +5929,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>300</v>
       </c>
@@ -5949,8 +5945,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>301</v>
       </c>
@@ -5965,10 +5961,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>309</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5991,8 +5987,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
@@ -6011,8 +6007,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
         <v>311</v>
       </c>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ADC08-863E-46CF-9BA4-729A1FD56BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76B02C-39E9-4D71-AB00-64C8E0A52553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="344">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,10 +831,6 @@
   </si>
   <si>
     <t>stay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1906,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896AF1D-8ECF-4909-A7A5-0F7E9F4CD4F5}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2208,13 +2204,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -2236,7 +2232,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -2411,7 +2407,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -2509,7 +2505,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>107</v>
@@ -2537,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
@@ -2547,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2588,6 +2584,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2598,12 +2600,6 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2732,10 +2728,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>321</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2765,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2792,10 +2788,10 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>118</v>
@@ -2808,10 +2804,10 @@
       <c r="A9" s="23"/>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -3213,7 +3209,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>59</v>
@@ -3241,7 +3237,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>17</v>
@@ -3251,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3278,6 +3274,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A28:A30"/>
@@ -3288,12 +3290,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3346,10 +3342,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>158</v>
@@ -3374,7 +3370,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -3392,10 +3388,10 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -3403,18 +3399,18 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -3436,7 +3432,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
@@ -3454,10 +3450,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>326</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>10</v>
@@ -3472,10 +3468,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>161</v>
@@ -3486,10 +3482,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>219</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>123</v>
@@ -3514,7 +3510,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
@@ -3545,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3555,7 +3551,7 @@
         <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>68</v>
@@ -3565,18 +3561,18 @@
         <v>12</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -3613,17 +3609,17 @@
         <v>12</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -3633,17 +3629,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -3658,13 +3654,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>11</v>
@@ -3686,10 +3682,10 @@
       <c r="A18" s="29"/>
       <c r="B18" s="27"/>
       <c r="C18" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>17</v>
@@ -3701,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3711,7 +3707,7 @@
         <v>123</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>17</v>
@@ -3728,10 +3724,10 @@
       <c r="A20" s="29"/>
       <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -3739,17 +3735,17 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="32"/>
       <c r="C21" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>17</v>
@@ -3757,7 +3753,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3781,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3886,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3896,7 +3892,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -3906,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3916,7 +3912,7 @@
         <v>159</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>161</v>
@@ -3926,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4268,7 +4264,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
@@ -4286,7 +4282,7 @@
         <v>199</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
@@ -4301,7 +4297,7 @@
         <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -4319,7 +4315,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -4364,13 +4360,13 @@
       <c r="A28" s="22"/>
       <c r="B28" s="25"/>
       <c r="C28" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
@@ -4382,10 +4378,10 @@
       <c r="A29" s="22"/>
       <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
@@ -4395,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4401,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -4415,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4588,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4644,7 +4640,7 @@
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -4768,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4796,7 +4792,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4804,7 +4800,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4814,7 +4810,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>147</v>
@@ -4877,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C9CA0F-203C-45B8-A23C-731972BF354B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4918,13 +4914,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -4946,13 +4942,13 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -4964,10 +4960,10 @@
       <c r="A4" s="23"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>118</v>
@@ -4975,18 +4971,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -5028,10 +5024,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -5041,18 +5037,18 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5094,10 +5090,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5107,14 +5103,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>197</v>
@@ -5128,13 +5124,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -5156,7 +5152,7 @@
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>142</v>
@@ -5176,7 +5172,7 @@
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>141</v>
@@ -5194,10 +5190,10 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -5207,25 +5203,25 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5289,13 +5285,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5317,7 +5313,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5335,7 +5331,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>178</v>
@@ -5348,17 +5344,17 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
@@ -5366,17 +5362,17 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>161</v>
@@ -5391,10 +5387,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>161</v>
@@ -5407,13 +5403,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5455,10 +5451,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5468,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5496,7 +5492,7 @@
         <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
@@ -5504,18 +5500,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -5557,10 +5553,10 @@
       <c r="A15" s="23"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -5570,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5632,13 +5628,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5660,7 +5656,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5709,18 +5705,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -5760,10 +5756,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -5830,13 +5826,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5858,10 +5854,10 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -5869,14 +5865,14 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -5894,10 +5890,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5914,10 +5910,10 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -5932,10 +5928,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
@@ -5948,10 +5944,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -5962,13 +5958,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -6010,10 +6006,10 @@
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -6023,7 +6019,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76B02C-39E9-4D71-AB00-64C8E0A52553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967937BE-893E-4847-80F3-3AF814F5E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="344">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,10 +970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逗号隔开列标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>seat_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1326,10 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状压，空为自由席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>允许自由席数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,6 +1394,14 @@
   </si>
   <si>
     <t>区县名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状压，-1为自由席；若列顺序编号则为最大编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空为自由席，逗号隔开列标，例：'A,B,C/D,F'、'上,中,下'、'顺序编号'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896AF1D-8ECF-4909-A7A5-0F7E9F4CD4F5}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2204,13 +2204,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>340</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>342</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -2232,7 +2232,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -2505,7 +2505,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>107</v>
@@ -2533,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
@@ -2543,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2584,12 +2584,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2600,6 +2594,12 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2728,10 +2728,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2788,10 +2788,10 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>118</v>
@@ -2804,10 +2804,10 @@
       <c r="A9" s="23"/>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -3209,7 +3209,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>59</v>
@@ -3237,7 +3237,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>17</v>
@@ -3247,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3274,12 +3274,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A28:A30"/>
@@ -3290,6 +3284,12 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3301,7 +3301,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3311,7 +3311,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3450,10 +3450,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>10</v>
@@ -3468,10 +3468,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>161</v>
@@ -3551,7 +3551,7 @@
         <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>68</v>
@@ -3629,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3707,7 +3707,7 @@
         <v>123</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>17</v>
@@ -3727,15 +3727,17 @@
         <v>233</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="13" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3745,7 +3747,7 @@
         <v>232</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>17</v>
@@ -3753,7 +3755,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3894,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -3902,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3912,7 +3914,7 @@
         <v>159</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>161</v>
@@ -3922,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4297,7 +4299,7 @@
         <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -4584,7 +4586,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4640,7 +4642,7 @@
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -4764,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4792,7 +4794,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4800,7 +4802,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4810,7 +4812,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>147</v>
@@ -4873,7 +4875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C9CA0F-203C-45B8-A23C-731972BF354B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4914,13 +4916,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -4942,13 +4944,13 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -4960,10 +4962,10 @@
       <c r="A4" s="23"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>118</v>
@@ -4971,18 +4973,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -5024,10 +5026,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -5037,18 +5039,18 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5090,10 +5092,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5103,14 +5105,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>197</v>
@@ -5124,13 +5126,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -5152,7 +5154,7 @@
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>142</v>
@@ -5172,7 +5174,7 @@
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>141</v>
@@ -5190,10 +5192,10 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -5203,17 +5205,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -5221,7 +5223,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5247,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5285,13 +5287,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5313,7 +5315,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5331,7 +5333,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>178</v>
@@ -5344,17 +5346,17 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
@@ -5362,17 +5364,17 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>161</v>
@@ -5387,10 +5389,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>161</v>
@@ -5403,13 +5405,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5451,10 +5453,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5464,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5492,7 +5494,7 @@
         <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
@@ -5500,18 +5502,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -5553,10 +5555,10 @@
       <c r="A15" s="23"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -5566,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5628,13 +5630,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5656,7 +5658,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5705,18 +5707,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -5756,10 +5758,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -5787,7 +5789,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5826,13 +5828,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5854,10 +5856,10 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -5865,14 +5867,14 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -5890,10 +5892,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5910,10 +5912,10 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -5928,10 +5930,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
@@ -5944,10 +5946,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -5958,13 +5960,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -6006,10 +6008,10 @@
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -6019,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967937BE-893E-4847-80F3-3AF814F5E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43149B9B-2C46-4369-BF24-96610A4B3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="358">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,10 +1190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比起始日期小则为次年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>country_holiday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,6 +1398,66 @@
   </si>
   <si>
     <t>空为自由席，逗号隔开列标，例：'A,B,C/D,F'、'上,中,下'、'顺序编号'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行乘客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellow_passenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主乘客id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellow_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>licence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以为次年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆类型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆类型名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1902,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896AF1D-8ECF-4909-A7A5-0F7E9F4CD4F5}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -2204,13 +2260,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>340</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -2232,7 +2288,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -2407,7 +2463,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -2505,7 +2561,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>107</v>
@@ -2533,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
@@ -2543,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2608,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2728,10 +2784,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>319</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2761,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2788,10 +2844,10 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>118</v>
@@ -2804,10 +2860,10 @@
       <c r="A9" s="23"/>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -2847,188 +2903,188 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+      <c r="C11" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="E17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
+      <c r="C18" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="G18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>42</v>
+      <c r="C19" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -3043,251 +3099,337 @@
         <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="5" t="s">
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="3" t="s">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="5" t="s">
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="3" t="s">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B32" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="5" t="s">
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
+  <mergeCells count="18">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
   </mergeCells>
@@ -3298,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFACDDCC-6FCE-4270-A853-059DDA827BAA}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3342,13 +3484,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -3366,412 +3508,458 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="18" t="s">
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="3" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="3" t="s">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B15" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="5" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3" t="s">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B19" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
       <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D22" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="E23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3783,7 +3971,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3894,7 +4082,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -3904,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3914,7 +4102,7 @@
         <v>159</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>161</v>
@@ -3924,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4299,7 +4487,7 @@
         <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -4439,7 +4627,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4586,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4766,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4794,7 +4982,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4802,7 +4990,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4812,7 +5000,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>147</v>
@@ -4973,7 +5161,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5466,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5568,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5778,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5707,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5715,7 +5903,7 @@
         <v>282</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>284</v>
@@ -5761,7 +5949,7 @@
         <v>287</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -5828,13 +6016,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5856,10 +6044,10 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -5867,14 +6055,14 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -5892,10 +6080,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5912,10 +6100,10 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -5930,10 +6118,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
@@ -5946,10 +6134,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -5960,13 +6148,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -6008,10 +6196,10 @@
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -6021,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43149B9B-2C46-4369-BF24-96610A4B3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84130915-F917-4086-BC05-7F0397103AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -762,10 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7位状压，周一开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外键line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,6 +1454,10 @@
   </si>
   <si>
     <t>火车类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7位状压，周日开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2260,13 +2260,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>338</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>339</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -2463,7 +2463,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -2561,7 +2561,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>107</v>
@@ -2589,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
@@ -2599,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2640,6 +2640,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2650,12 +2656,6 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,10 +2784,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2817,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2844,10 +2844,10 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>118</v>
@@ -2860,10 +2860,10 @@
       <c r="A9" s="23"/>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -2904,13 +2904,13 @@
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>352</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="18" t="s">
@@ -3012,13 +3012,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="18" t="s">
         <v>344</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>345</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>11</v>
@@ -3040,13 +3040,13 @@
       <c r="A18" s="22"/>
       <c r="B18" s="25"/>
       <c r="C18" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="18" t="s">
@@ -3060,13 +3060,13 @@
       <c r="A19" s="23"/>
       <c r="B19" s="26"/>
       <c r="C19" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>350</v>
-      </c>
       <c r="E19" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="18" t="s">
@@ -3349,7 +3349,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>59</v>
@@ -3377,7 +3377,7 @@
         <v>60</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>17</v>
@@ -3387,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3414,6 +3414,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A32:A34"/>
@@ -3424,14 +3432,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3442,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFACDDCC-6FCE-4270-A853-059DDA827BAA}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -3512,7 +3512,7 @@
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>158</v>
@@ -3556,7 +3556,7 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
@@ -3574,10 +3574,10 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -3585,18 +3585,18 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -3618,7 +3618,7 @@
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
@@ -3636,10 +3636,10 @@
       <c r="A9" s="22"/>
       <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>10</v>
@@ -3654,10 +3654,10 @@
       <c r="A10" s="23"/>
       <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>161</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>219</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>123</v>
@@ -3696,7 +3696,7 @@
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
@@ -3727,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3737,7 +3737,7 @@
         <v>170</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>68</v>
@@ -3747,18 +3747,18 @@
         <v>12</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -3795,17 +3795,17 @@
         <v>12</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
@@ -3815,17 +3815,17 @@
         <v>12</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="26"/>
       <c r="C18" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C19" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>11</v>
@@ -3868,10 +3868,10 @@
       <c r="A20" s="29"/>
       <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>17</v>
@@ -3883,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3893,7 +3893,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>17</v>
@@ -3910,10 +3910,10 @@
       <c r="A22" s="29"/>
       <c r="B22" s="27"/>
       <c r="C22" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
@@ -3923,17 +3923,17 @@
         <v>12</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="32"/>
       <c r="C23" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>17</v>
@@ -3941,7 +3941,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +3971,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4072,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4082,7 +4082,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -4092,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4102,7 +4102,7 @@
         <v>159</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>161</v>
@@ -4112,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4158,7 +4158,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4216,7 +4216,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4280,13 +4280,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4321,14 +4321,14 @@
         <v>12</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>143</v>
@@ -4346,7 +4346,7 @@
       <c r="A18" s="23"/>
       <c r="B18" s="26"/>
       <c r="C18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>144</v>
@@ -4362,13 +4362,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -4403,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4430,10 +4430,10 @@
       <c r="A22" s="22"/>
       <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -4448,10 +4448,10 @@
       <c r="A23" s="22"/>
       <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -4466,10 +4466,10 @@
       <c r="A24" s="22"/>
       <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -4484,10 +4484,10 @@
       <c r="A25" s="23"/>
       <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -4497,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -4543,14 +4543,14 @@
         <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="25"/>
       <c r="C28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>143</v>
@@ -4568,10 +4568,10 @@
       <c r="A29" s="22"/>
       <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
@@ -4581,7 +4581,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4591,7 +4591,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -4601,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4627,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4774,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4830,7 +4830,7 @@
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -4954,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4990,7 +4990,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -5000,7 +5000,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>147</v>
@@ -5104,13 +5104,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5132,13 +5132,13 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -5150,10 +5150,10 @@
       <c r="A4" s="23"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>118</v>
@@ -5161,18 +5161,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -5214,10 +5214,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -5227,18 +5227,18 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5273,17 +5273,17 @@
         <v>12</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5293,17 +5293,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -5314,13 +5314,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -5342,7 +5342,7 @@
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>142</v>
@@ -5362,7 +5362,7 @@
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>141</v>
@@ -5380,10 +5380,10 @@
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -5393,17 +5393,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -5411,7 +5411,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5434,8 +5434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E235BB5-E90C-45B6-9D14-7DA72B3705FB}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5475,13 +5475,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5503,7 +5503,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5521,7 +5521,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>178</v>
@@ -5534,17 +5534,17 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
@@ -5552,17 +5552,17 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>161</v>
@@ -5577,10 +5577,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>161</v>
@@ -5593,13 +5593,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5641,10 +5641,10 @@
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -5654,14 +5654,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>143</v>
@@ -5679,10 +5679,10 @@
       <c r="A12" s="23"/>
       <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
@@ -5690,18 +5690,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -5743,10 +5743,10 @@
       <c r="A15" s="23"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5818,13 +5818,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5846,7 +5846,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -5864,7 +5864,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>143</v>
@@ -5882,7 +5882,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="26"/>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>144</v>
@@ -5895,18 +5895,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -5946,10 +5946,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -6016,13 +6016,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -6044,10 +6044,10 @@
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -6055,14 +6055,14 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -6080,10 +6080,10 @@
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -6100,10 +6100,10 @@
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -6118,10 +6118,10 @@
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
@@ -6134,10 +6134,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -6148,13 +6148,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -6196,10 +6196,10 @@
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -6209,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84130915-F917-4086-BC05-7F0397103AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D51E0-1110-48E8-B48E-6BFEC6070B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="360">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,6 +1458,14 @@
   </si>
   <si>
     <t>7位状压，周日开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已使用数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,28 +1626,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,13 +1656,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1999,10 +2003,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2025,28 +2029,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2065,10 +2069,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2091,28 +2095,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
@@ -2131,10 +2135,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2157,26 +2161,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2195,10 +2198,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2221,26 +2224,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
@@ -2259,74 +2261,72 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s">
         <v>339</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2349,100 +2349,95 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
         <v>92</v>
       </c>
@@ -2459,10 +2454,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>330</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2485,62 +2480,58 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="6"/>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
@@ -2557,10 +2548,10 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>331</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2583,46 +2574,44 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>332</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="6"/>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="3" t="s">
         <v>109</v>
       </c>
@@ -2640,12 +2629,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2656,6 +2639,12 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2707,13 +2696,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2733,35 +2722,35 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2781,85 +2770,81 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2875,122 +2860,115 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" t="s">
         <v>351</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" t="s">
         <v>347</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
@@ -3011,76 +2989,74 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" t="s">
         <v>345</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" t="s">
         <v>346</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" t="s">
         <v>347</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3103,44 +3079,42 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="6"/>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3161,10 +3135,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3187,8 +3161,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
@@ -3209,10 +3183,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3235,28 +3209,27 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
@@ -3277,10 +3250,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3303,28 +3276,27 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
@@ -3345,10 +3317,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3371,28 +3343,27 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>332</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
@@ -3414,14 +3385,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A32:A34"/>
@@ -3432,6 +3395,14 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3483,10 +3454,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3509,8 +3480,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>354</v>
       </c>
@@ -3527,10 +3498,10 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3553,46 +3524,43 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3615,44 +3583,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" t="s">
         <v>321</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>235</v>
       </c>
@@ -3667,72 +3633,70 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
@@ -3746,15 +3710,15 @@
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3777,50 +3741,50 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>225</v>
       </c>
@@ -3839,108 +3803,108 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="E20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="E21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15" t="s">
+      <c r="E23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4012,10 +3976,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4038,66 +4002,63 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>159</v>
       </c>
@@ -4116,10 +4077,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4142,125 +4103,119 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
@@ -4274,15 +4229,15 @@
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>183</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4305,46 +4260,44 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>187</v>
       </c>
@@ -4361,10 +4314,10 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4387,102 +4340,97 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="6"/>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="6"/>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>194</v>
       </c>
@@ -4496,15 +4444,15 @@
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>199</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4527,66 +4475,63 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="6"/>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
@@ -4666,10 +4611,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4692,26 +4637,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4730,10 +4674,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4756,8 +4700,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>127</v>
       </c>
@@ -4778,10 +4722,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4804,232 +4748,218 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6"/>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>327</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="3" t="s">
         <v>138</v>
       </c>
@@ -5103,10 +5033,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5129,26 +5059,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>241</v>
       </c>
@@ -5165,10 +5094,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5191,28 +5120,27 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>239</v>
       </c>
@@ -5231,10 +5159,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5257,48 +5185,46 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>253</v>
       </c>
@@ -5313,10 +5239,10 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>255</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5339,66 +5265,63 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
         <v>259</v>
       </c>
@@ -5432,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E235BB5-E90C-45B6-9D14-7DA72B3705FB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5474,10 +5397,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5500,82 +5423,77 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>269</v>
       </c>
@@ -5592,10 +5510,10 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5618,144 +5536,154 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>279</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="3" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5763,10 +5691,10 @@
   <mergeCells count="6">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5817,10 +5745,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5843,44 +5771,42 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6"/>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>187</v>
       </c>
@@ -5899,10 +5825,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5925,26 +5851,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>286</v>
       </c>
@@ -5976,7 +5901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CAC699-5ACF-4FDA-B320-E85E8CB8AF3E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -6015,10 +5940,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -6041,98 +5966,92 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s">
         <v>299</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6"/>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>301</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>297</v>
       </c>
@@ -6147,10 +6066,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>305</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6173,28 +6092,27 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>307</v>
       </c>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D51E0-1110-48E8-B48E-6BFEC6070B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FCA122-1E3E-4858-A9D5-8FB1DC1AD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -2629,6 +2629,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2639,12 +2645,6 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3385,6 +3385,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A32:A34"/>
@@ -3395,14 +3403,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3413,7 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFACDDCC-6FCE-4270-A853-059DDA827BAA}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -5901,7 +5901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CAC699-5ACF-4FDA-B320-E85E8CB8AF3E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FCA122-1E3E-4858-A9D5-8FB1DC1AD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D59FC2-0553-4939-BBC1-8FB1DEDC2262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -2629,12 +2629,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A11:A13"/>
@@ -2645,6 +2639,12 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3385,14 +3385,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A32:A34"/>
@@ -3403,6 +3395,14 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3413,7 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFACDDCC-6FCE-4270-A853-059DDA827BAA}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3934,7 +3934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F39794-70F5-488D-B971-5C2371BC9D02}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>

--- a/teach-server/db说明.xlsx
+++ b/teach-server/db说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_demo\railway\railway\teach-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D59FC2-0553-4939-BBC1-8FB1DEDC2262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A83C5-8E56-4CFD-B30A-B17C4E5E4FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="971" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行政包administration(8)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="358">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主键非自增，中省直辖市自治区/日都道府县/韩广域自治团体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城市id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>便捷换乘码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,14 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transfer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有相同换乘码的车站可迅速换乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外键city</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,10 +1353,6 @@
     <t>admin_company</t>
   </si>
   <si>
-    <t>路线起点国货币，Kdiscount*Kline(Kseat*Bstop+Bseat)+Bline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三级行政区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,14 +1369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状压，-1为自由席；若列顺序编号则为最大编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空为自由席，逗号隔开列标，例：'A,B,C/D,F'、'上,中,下'、'顺序编号'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同行乘客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,6 +1438,26 @@
   </si>
   <si>
     <t>used_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空为自由席，逗号隔开列标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状压，-1为自由席；顺序则最大编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线起点国货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kdiscount*Kline(Kseat*Bstop+Bseat)+Bline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键holiday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1626,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1678,6 +1670,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1960,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896AF1D-8ECF-4909-A7A5-0F7E9F4CD4F5}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1973,7 +1968,7 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="54.625" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2152,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2205,7 +2200,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2247,7 +2242,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -2257,18 +2252,18 @@
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -2290,7 +2285,7 @@
       <c r="A15" s="18"/>
       <c r="B15" s="21"/>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -2307,10 +2302,10 @@
       <c r="A16" s="19"/>
       <c r="B16" s="22"/>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -2319,15 +2314,15 @@
         <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>56</v>
@@ -2350,9 +2345,9 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="29"/>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -2367,12 +2362,12 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="29"/>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
         <v>68</v>
@@ -2384,12 +2379,12 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="29"/>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>68</v>
@@ -2401,12 +2396,12 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="29"/>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
@@ -2416,14 +2411,14 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -2432,61 +2427,60 @@
         <v>12</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="21"/>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -2494,157 +2488,140 @@
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="21"/>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="4"/>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="21"/>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2656,7 +2633,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2773,10 +2750,10 @@
       <c r="A5" s="18"/>
       <c r="B5" s="21"/>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -2805,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2831,13 +2808,13 @@
       <c r="A8" s="18"/>
       <c r="B8" s="21"/>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -2845,10 +2822,10 @@
       <c r="A9" s="19"/>
       <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -2889,13 +2866,13 @@
       <c r="A11" s="18"/>
       <c r="B11" s="21"/>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2990,13 +2967,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -3018,38 +2995,38 @@
       <c r="A18" s="18"/>
       <c r="B18" s="21"/>
       <c r="C18" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="22"/>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3321,7 +3298,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>59</v>
@@ -3349,7 +3326,7 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
@@ -3358,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3385,6 +3362,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A32:A34"/>
@@ -3395,14 +3380,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,7 +3391,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3424,7 +3401,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="56.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3455,13 +3432,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -3483,7 +3460,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -3499,13 +3476,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -3527,7 +3504,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="21"/>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3544,27 +3521,27 @@
       <c r="A6" s="18"/>
       <c r="B6" s="21"/>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -3586,7 +3563,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="21"/>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3603,10 +3580,10 @@
       <c r="A9" s="18"/>
       <c r="B9" s="21"/>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -3620,13 +3597,13 @@
       <c r="A10" s="19"/>
       <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3634,13 +3611,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -3662,7 +3639,7 @@
       <c r="A12" s="18"/>
       <c r="B12" s="21"/>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -3679,10 +3656,10 @@
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -3691,17 +3668,17 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>68</v>
@@ -3711,18 +3688,18 @@
         <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -3744,10 +3721,10 @@
       <c r="A16" s="18"/>
       <c r="B16" s="21"/>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -3759,17 +3736,17 @@
         <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="21"/>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -3779,17 +3756,17 @@
         <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -3799,18 +3776,18 @@
         <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>11</v>
@@ -3832,10 +3809,10 @@
       <c r="A20" s="25"/>
       <c r="B20" s="23"/>
       <c r="C20" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>17</v>
@@ -3847,17 +3824,17 @@
         <v>12</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="23"/>
       <c r="C21" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>17</v>
@@ -3867,17 +3844,17 @@
         <v>12</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="23"/>
       <c r="C22" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>10</v>
@@ -3887,17 +3864,17 @@
         <v>12</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="28"/>
       <c r="C23" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>17</v>
@@ -3905,7 +3882,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="14" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3934,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F39794-70F5-488D-B971-5C2371BC9D02}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3977,13 +3954,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -4005,7 +3982,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -4022,10 +3999,10 @@
       <c r="A4" s="18"/>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -4034,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4044,7 +4021,7 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -4053,38 +4030,38 @@
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -4106,10 +4083,10 @@
       <c r="A8" s="18"/>
       <c r="B8" s="21"/>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -4118,17 +4095,17 @@
         <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="21"/>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -4142,10 +4119,10 @@
       <c r="A10" s="18"/>
       <c r="B10" s="21"/>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -4154,17 +4131,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="21"/>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -4173,20 +4150,20 @@
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="21"/>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -4197,10 +4174,10 @@
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -4209,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K13" s="16"/>
     </row>
@@ -4217,10 +4194,10 @@
       <c r="A14" s="19"/>
       <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>68</v>
@@ -4230,18 +4207,18 @@
         <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4263,10 +4240,10 @@
       <c r="A16" s="18"/>
       <c r="B16" s="21"/>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -4275,17 +4252,17 @@
         <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="21"/>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -4299,10 +4276,10 @@
       <c r="A18" s="19"/>
       <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>39</v>
@@ -4315,13 +4292,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -4343,10 +4320,10 @@
       <c r="A20" s="18"/>
       <c r="B20" s="21"/>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -4355,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4381,10 +4358,10 @@
       <c r="A22" s="18"/>
       <c r="B22" s="21"/>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -4398,10 +4375,10 @@
       <c r="A23" s="18"/>
       <c r="B23" s="21"/>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -4415,10 +4392,10 @@
       <c r="A24" s="18"/>
       <c r="B24" s="21"/>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -4432,10 +4409,10 @@
       <c r="A25" s="19"/>
       <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -4445,18 +4422,18 @@
         <v>12</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -4478,10 +4455,10 @@
       <c r="A27" s="18"/>
       <c r="B27" s="21"/>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -4490,17 +4467,17 @@
         <v>12</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="21"/>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -4514,10 +4491,10 @@
       <c r="A29" s="18"/>
       <c r="B29" s="21"/>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -4526,7 +4503,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4536,7 +4513,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -4546,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4569,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8F2A74-1ECB-43E0-8C18-ECDE8BC7E10A}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4581,7 +4558,7 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="51.125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4612,13 +4589,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -4640,13 +4617,13 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -4660,7 +4637,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -4670,18 +4647,18 @@
         <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -4703,7 +4680,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -4718,18 +4695,18 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -4751,10 +4728,10 @@
       <c r="A8" s="18"/>
       <c r="B8" s="21"/>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -4763,17 +4740,17 @@
         <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="21"/>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -4782,17 +4759,17 @@
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="21"/>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -4801,17 +4778,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="21"/>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
@@ -4825,10 +4802,10 @@
       <c r="A12" s="18"/>
       <c r="B12" s="21"/>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -4837,17 +4814,17 @@
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -4861,10 +4838,10 @@
       <c r="A14" s="18"/>
       <c r="B14" s="21"/>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -4878,10 +4855,10 @@
       <c r="A15" s="18"/>
       <c r="B15" s="21"/>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -4890,17 +4867,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="21"/>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -4914,29 +4891,29 @@
       <c r="A17" s="18"/>
       <c r="B17" s="21"/>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="21"/>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -4944,10 +4921,10 @@
       <c r="A19" s="18"/>
       <c r="B19" s="21"/>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -4961,10 +4938,10 @@
       <c r="A20" s="19"/>
       <c r="B20" s="22"/>
       <c r="C20" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -4974,6 +4951,11 @@
         <v>12</v>
       </c>
       <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5034,13 +5016,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5062,13 +5044,13 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
         <v>240</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" t="s">
-        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -5079,29 +5061,29 @@
       <c r="A4" s="19"/>
       <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -5142,10 +5124,10 @@
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -5155,18 +5137,18 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5188,10 +5170,10 @@
       <c r="A9" s="18"/>
       <c r="B9" s="21"/>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -5200,17 +5182,17 @@
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="21"/>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -5219,17 +5201,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -5240,13 +5222,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -5268,10 +5250,10 @@
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -5280,17 +5262,17 @@
         <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="21"/>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -5304,10 +5286,10 @@
       <c r="A15" s="18"/>
       <c r="B15" s="21"/>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -5316,17 +5298,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -5334,7 +5316,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5340,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5398,13 +5380,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5426,7 +5408,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -5443,10 +5425,10 @@
       <c r="A4" s="18"/>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -5455,36 +5437,36 @@
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="21"/>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="21"/>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -5495,13 +5477,13 @@
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -5511,13 +5493,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -5542,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -5551,17 +5533,17 @@
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="21"/>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -5570,17 +5552,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="21"/>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
@@ -5594,10 +5576,10 @@
       <c r="A12" s="18"/>
       <c r="B12" s="21"/>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -5608,10 +5590,10 @@
       <c r="A13" s="19"/>
       <c r="B13" s="22"/>
       <c r="C13" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>39</v>
@@ -5619,18 +5601,18 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -5671,10 +5653,10 @@
       <c r="A16" s="19"/>
       <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -5684,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5705,8 +5687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8767B0-9CE3-4D4B-B56F-60A328643F73}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5715,7 +5697,7 @@
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5746,13 +5728,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5774,7 +5756,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -5791,10 +5773,10 @@
       <c r="A4" s="18"/>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -5808,10 +5790,10 @@
       <c r="A5" s="19"/>
       <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>39</v>
@@ -5821,18 +5803,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -5865,16 +5847,18 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -5883,7 +5867,9 @@
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5902,7 +5888,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5941,13 +5927,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -5969,23 +5955,23 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -6002,10 +5988,10 @@
       <c r="A5" s="18"/>
       <c r="B5" s="21"/>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -6022,10 +6008,10 @@
       <c r="A6" s="18"/>
       <c r="B6" s="21"/>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -6039,10 +6025,10 @@
       <c r="A7" s="18"/>
       <c r="B7" s="21"/>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -6053,10 +6039,10 @@
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -6067,13 +6053,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -6114,10 +6100,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -6127,7 +6113,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
